--- a/Investigation/target/classes/excelfiles/test.xlsx
+++ b/Investigation/target/classes/excelfiles/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>4</t>
   </si>
@@ -50,76 +50,72 @@
     <t>설명</t>
   </si>
   <si>
-    <t>항목1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목2</t>
-  </si>
-  <si>
-    <t>항목3</t>
-  </si>
-  <si>
-    <t>항목4</t>
-  </si>
-  <si>
-    <t>항목5</t>
-  </si>
-  <si>
-    <t>항목6</t>
-  </si>
-  <si>
-    <t>항목7</t>
-  </si>
-  <si>
-    <t>항목1 설명입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목2 설명입니다.</t>
-  </si>
-  <si>
-    <t>항목3 설명입니다.</t>
-  </si>
-  <si>
-    <t>항목4 설명입니다.</t>
-  </si>
-  <si>
-    <t>항목5 설명입니다.</t>
-  </si>
-  <si>
-    <t>항목6 설명입니다.</t>
-  </si>
-  <si>
-    <t>항목7 설명입니다.</t>
-  </si>
-  <si>
-    <t>항목2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>활력 경험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활력 경험을 측정합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활 경험 확장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활 경험 확장을 측정합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여가 선용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임으로 여가를 보냅니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰입 경험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰입 경험을 측정합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자긍심 경험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임으로 인한 자긍심을 측정합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통제력 경험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 대한 통제력을 측정합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회적 지지망 유지 및 확장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회적 지지망 유지 및 확장 설문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>항목1</t>
+      <t>과도한 시간</t>
     </r>
     <r>
       <rPr>
@@ -129,42 +125,21 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 문항1</t>
+      <t xml:space="preserve"> 소비</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목1 문항2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목1 문항3</t>
-  </si>
-  <si>
-    <t>항목1 문항4</t>
-  </si>
-  <si>
-    <t>항목1 문항5</t>
-  </si>
-  <si>
-    <t>항목2 문항1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목2 문항2</t>
-  </si>
-  <si>
-    <t>항목2 문항3</t>
-  </si>
-  <si>
-    <t>항목2 문항4</t>
-  </si>
-  <si>
-    <t>항목2 문항5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조절 손상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강박적 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>항목3</t>
+      <t>일상 생활</t>
     </r>
     <r>
       <rPr>
@@ -174,13 +149,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 문항1</t>
+      <t xml:space="preserve"> 무시</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>항목3</t>
+      <t>부작용에도 계속</t>
     </r>
     <r>
       <rPr>
@@ -190,23 +165,38 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 문항2</t>
+      <t xml:space="preserve"> 사용</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>게임 내성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목3</t>
+      <t>게임 금단</t>
     </r>
     <r>
       <rPr>
@@ -216,23 +206,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 문항3</t>
+      <t xml:space="preserve"> 증상</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목3</t>
+      <t>게임에 소비하는</t>
     </r>
     <r>
       <rPr>
@@ -242,23 +222,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 문항4</t>
+      <t xml:space="preserve"> 시간</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목3</t>
+      <t>게임 조절</t>
     </r>
     <r>
       <rPr>
@@ -268,23 +238,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 문항5</t>
+      <t xml:space="preserve"> 측정</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목4</t>
+      <t>게임에 대한</t>
     </r>
     <r>
       <rPr>
@@ -294,13 +254,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 문항1</t>
+      <t xml:space="preserve"> 강박관념</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>항목4</t>
+      <t>일상 생활에</t>
     </r>
     <r>
       <rPr>
@@ -310,23 +270,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 문항2</t>
+      <t xml:space="preserve"> 게임이 주는 피해</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목4</t>
+      <t>게임의 부작용</t>
     </r>
     <r>
       <rPr>
@@ -336,450 +286,184 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 문항3</t>
+      <t xml:space="preserve"> 무시</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>항목5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>항목6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>항목7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>항목7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 문항5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임으로 인해 내 생활에 생기가 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임으로 인해 내 생활이 활기차다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임으로 인해 즐겁게 사는 에너지가 생긴다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해서 내 생각이나 비전이 확장된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해 나늬 생활에 적용할 수 있는 새로운 아이디어를 얻는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해 과거에 알지 못하던 새로운 세계를 알게 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임의 재미로 스트레스를 해소한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해 여가시간을 즐겁게 보낸다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해 여가시간을 유용하게 보낸다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해 몰입을 경험한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해 완전한 집중력을 경험한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 할 때 완전히 게임에 빠저들곤 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 기술을 발휘하여 자긍심을 느낀다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 기술을 발휘하여 유능함을 느낀다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 기술을 발휘하여 나의 재능에 대해 만족감을 느낀다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해서 나 자신을 잘 통제할 수 있게 되었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해서 충동을 조절하는 능력이 생겼다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해서 자제력이 생겼다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해 나의 고민을 이야기할 수 있는 사람들이 생겼다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해 기쁨과 슬픔을 함꼐 나눌 수 있는 사람들이 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 통해 나를 잘 알고 이해해주는 사람들이 생겼다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는 만큼의 만족감을 느끼려면 전보다 훨씬 더 오래 게임을 해야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하면 할 수록 전보다 더 많은 시간 동안 게임을 해야 직성이 풀린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날이 갈수록 점점 더 오랜 시간 게임을 해야 만족하게 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금단에 대해 물어봅니다1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금단에 대해 물어봅니다2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금단에 대해 물어봅니다3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과도한 시간 소비에 대해 물어봅니다1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과도한 시간 소비에 대해 물어봅니다2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과도한 시간 소비에 대해 물어봅니다3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조절 손상에 대해 물어봅니다1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조절 손상에 대해 물어봅니다2</t>
+  </si>
+  <si>
+    <t>조절 손상에 대해 물어봅니다3</t>
+  </si>
+  <si>
+    <t>강박적 사용에 대해 물어봅니다1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강박적 사용에 대해 물어봅니다2</t>
+  </si>
+  <si>
+    <t>강박적 사용에 대해 물어봅니다3</t>
+  </si>
+  <si>
+    <t>일상 생활 무시에 대해 물어봅니다1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일상 생활 무시에 대해 물어봅니다2</t>
+  </si>
+  <si>
+    <t>일상 생활 무시에 대해 물어봅니다3</t>
+  </si>
+  <si>
+    <t>부작용에도 계속 사용에 대해 물어봅니다1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부작용에도 계속 사용에 대해 물어봅니다2</t>
+  </si>
+  <si>
+    <t>부작용에도 계속 사용에 대해 물어봅니다3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="돋움"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -851,7 +535,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,7 +717,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1042,7 +726,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1316,10 +1000,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1348,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1356,10 +1040,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1367,10 +1051,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1378,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1389,10 +1073,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1400,10 +1084,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1411,14 +1095,91 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
 </worksheet>
@@ -1427,9 +1188,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1461,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1473,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1485,396 +1246,473 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5">
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5">
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B25" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
         <v>1</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="C29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5">
         <v>2</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="C30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
         <v>3</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5">
-        <v>4</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5">
-        <v>5</v>
-      </c>
       <c r="C31" s="7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="5">
         <v>2</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="5">
         <v>3</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="5">
-        <v>4</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="5">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="1"/>
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="5">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1"/>
 </worksheet>
